--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_5.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_24</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9798756246411422</v>
+        <v>0.913182923878455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8091187822336884</v>
+        <v>0.7578278748223781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.961274444352149</v>
+        <v>-1.070510244591858</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.295770663229139</v>
+        <v>0.999907882102541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.769085710435245</v>
+        <v>0.5812157828534139</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08445768058300018</v>
+        <v>0.36435267329216</v>
       </c>
       <c r="H2" t="n">
-        <v>1.276423692703247</v>
+        <v>1.61940610408783</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06425337493419647</v>
+        <v>2.210991621017456</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4589529633522034</v>
+        <v>0.0002458184317220002</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2616031169891357</v>
+        <v>1.105619072914124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_23</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9801929590134908</v>
+        <v>0.913173236841509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8090966348449555</v>
+        <v>0.7570918618229106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9617609203211647</v>
+        <v>-1.082093886700814</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.252721927409019</v>
+        <v>0.9997329552074821</v>
       </c>
       <c r="F3" t="n">
-        <v>0.773240103108104</v>
+        <v>0.5787848310714845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08312590420246124</v>
+        <v>0.3643933832645416</v>
       </c>
       <c r="H3" t="n">
-        <v>1.276571750640869</v>
+        <v>1.624327898025513</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06344620883464813</v>
+        <v>2.223361253738403</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4503470063209534</v>
+        <v>0.0007126143318600953</v>
       </c>
       <c r="K3" t="n">
-        <v>0.256896585226059</v>
+        <v>1.112036943435669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_22</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9805361376402547</v>
+        <v>0.9131073744112804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8090663117516229</v>
+        <v>0.7563908359844947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9622980028759084</v>
+        <v>-1.092497912831704</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.205428575598066</v>
+        <v>0.9994346433165222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.777806093249608</v>
+        <v>0.5765301064408863</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08168565481901169</v>
+        <v>0.3646697103977203</v>
       </c>
       <c r="H4" t="n">
-        <v>1.276774406433105</v>
+        <v>1.629015684127808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06255508959293365</v>
+        <v>2.234471082687378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4408924579620361</v>
+        <v>0.001508665503934026</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2517237961292267</v>
+        <v>1.117989540100098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_21</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9809057732785638</v>
+        <v>0.9130018119987378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.809025545932563</v>
+        <v>0.7557294773469845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9628904777704509</v>
+        <v>-1.101848963601922</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.153552822781442</v>
+        <v>0.9990536910136604</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7828169128010327</v>
+        <v>0.5744463158963082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08013436943292618</v>
+        <v>0.3651128113269806</v>
       </c>
       <c r="H5" t="n">
-        <v>1.277047038078308</v>
+        <v>1.633438110351562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06157205253839493</v>
+        <v>2.244456768035889</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4305218458175659</v>
+        <v>0.002525244373828173</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2460470050573349</v>
+        <v>1.123490929603577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_20</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9813020438507939</v>
+        <v>0.9128694359270335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8089715091021986</v>
+        <v>0.7551101885196385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9635436085729949</v>
+        <v>-1.110258527522594</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.096749078369773</v>
+        <v>0.9986208977331178</v>
       </c>
       <c r="F6" t="n">
-        <v>0.788307068834732</v>
+        <v>0.5725266987627591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07847132533788681</v>
+        <v>0.3656682968139648</v>
       </c>
       <c r="H6" t="n">
-        <v>1.277408480644226</v>
+        <v>1.637579321861267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06048838049173355</v>
+        <v>2.253436803817749</v>
       </c>
       <c r="J6" t="n">
-        <v>0.419166088104248</v>
+        <v>0.003680161666125059</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2398272156715393</v>
+        <v>1.128558874130249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.981724376917785</v>
+        <v>0.9127199459671127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8089007074064181</v>
+        <v>0.754533751182445</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9642626138417919</v>
+        <v>-1.117826327839313</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.034684253271304</v>
+        <v>0.9981593889397729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7943096219163784</v>
+        <v>0.5707632417668409</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07669887691736221</v>
+        <v>0.3662956953048706</v>
       </c>
       <c r="H7" t="n">
-        <v>1.277881860733032</v>
+        <v>1.641433954238892</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0592954084277153</v>
+        <v>2.261518001556396</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4067585468292236</v>
+        <v>0.004911707248538733</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2330268919467926</v>
+        <v>1.133214473724365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9821714173623165</v>
+        <v>0.9125610102387859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8088087569316477</v>
+        <v>0.7539998053997845</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9650533096483315</v>
+        <v>-1.124634519917284</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9670301942380302</v>
+        <v>0.9976862583662893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8008575758889149</v>
+        <v>0.5691472598877714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07482273876667023</v>
+        <v>0.3669627010822296</v>
       </c>
       <c r="H8" t="n">
-        <v>1.278496742248535</v>
+        <v>1.645004510879517</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05798348411917686</v>
+        <v>2.26878809928894</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3932336866855621</v>
+        <v>0.006174265407025814</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2256087213754654</v>
+        <v>1.137480735778809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_17</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9826406064660661</v>
+        <v>0.9123980959175647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8086902621049605</v>
+        <v>0.7535071608463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9659218413418885</v>
+        <v>-1.130763055846471</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8934888405965067</v>
+        <v>0.9972140988675839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8079820761551907</v>
+        <v>0.567668953190394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07285365462303162</v>
+        <v>0.3676463961601257</v>
       </c>
       <c r="H9" t="n">
-        <v>1.279289126396179</v>
+        <v>1.648298740386963</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05654241889715195</v>
+        <v>2.275332450866699</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3785318732261658</v>
+        <v>0.007434232160449028</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2175373733043671</v>
+        <v>1.141383647918701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9831278152797529</v>
+        <v>0.9122353575020692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8085385992974354</v>
+        <v>0.7530541146528096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9668741871595783</v>
+        <v>-1.136282468506785</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8138098269714231</v>
+        <v>0.9967518221617192</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8157096960939049</v>
+        <v>0.5663192764027929</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07080894708633423</v>
+        <v>0.3683294355869293</v>
       </c>
       <c r="H10" t="n">
-        <v>1.280303239822388</v>
+        <v>1.651328325271606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05496228858828545</v>
+        <v>2.281226396560669</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3626030385494232</v>
+        <v>0.008667826652526855</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2087827324867249</v>
+        <v>1.144946813583374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9836270457379042</v>
+        <v>0.912075878028866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.808345628463556</v>
+        <v>0.7526386495146815</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9679165893641517</v>
+        <v>-1.141253752070113</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7277962996149401</v>
+        <v>0.9963058097682338</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8240620815534929</v>
+        <v>0.565088465456043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06871378421783447</v>
+        <v>0.3689987063407898</v>
       </c>
       <c r="H11" t="n">
-        <v>1.281593561172485</v>
+        <v>1.654106616973877</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05323273688554764</v>
+        <v>2.286535024642944</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3454078435897827</v>
+        <v>0.009858019649982452</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1993203163146973</v>
+        <v>1.148196220397949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9841297054546884</v>
+        <v>0.9119218026033811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8081014059981408</v>
+        <v>0.7522585511873154</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9690552197916437</v>
+        <v>-1.145728485933975</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6353519606579476</v>
+        <v>0.995880221336314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8330522899368257</v>
+        <v>0.5639683205934942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06660423427820206</v>
+        <v>0.369645357131958</v>
       </c>
       <c r="H12" t="n">
-        <v>1.283226728439331</v>
+        <v>1.6566481590271</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05134352296590805</v>
+        <v>2.291313409805298</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3269270956516266</v>
+        <v>0.01099371165037155</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1891352832317352</v>
+        <v>1.151153564453125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9846241607045034</v>
+        <v>0.9117745610829062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8077939282429923</v>
+        <v>0.7519115014408174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9702960790438176</v>
+        <v>-1.149760375637099</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5364852026653604</v>
+        <v>0.9954777399307125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.842683940554829</v>
+        <v>0.5629495440072314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06452910602092743</v>
+        <v>0.3702632784843445</v>
       </c>
       <c r="H13" t="n">
-        <v>1.285282969474792</v>
+        <v>1.658968925476074</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04928469657897949</v>
+        <v>2.295618772506714</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3071624040603638</v>
+        <v>0.01206774078309536</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1782235652208328</v>
+        <v>1.15384316444397</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9850947982162916</v>
+        <v>0.9116351170933559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8074087804814071</v>
+        <v>0.7515951751585241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9716442263987778</v>
+        <v>-1.153391482255454</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.431356202967905</v>
+        <v>0.9950997739165989</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8529466996397614</v>
+        <v>0.5620242832937854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06255394220352173</v>
+        <v>0.3708484768867493</v>
       </c>
       <c r="H14" t="n">
-        <v>1.287858486175537</v>
+        <v>1.661084175109863</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04704784974455833</v>
+        <v>2.299496173858643</v>
       </c>
       <c r="J14" t="n">
-        <v>0.286145806312561</v>
+        <v>0.01307635009288788</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1665968894958496</v>
+        <v>1.156286001205444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9855212271269901</v>
+        <v>0.9115039950772595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8069286284705592</v>
+        <v>0.7513072885521758</v>
       </c>
       <c r="D15" t="n">
-        <v>0.973104466317965</v>
+        <v>-1.156662470037506</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3203049268304257</v>
+        <v>0.9947469400102998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8638140677669817</v>
+        <v>0.5611842846367193</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06076430901885033</v>
+        <v>0.3713987767696381</v>
       </c>
       <c r="H15" t="n">
-        <v>1.291069149971008</v>
+        <v>1.663009285926819</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04462501779198647</v>
+        <v>2.30298924446106</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2639453113079071</v>
+        <v>0.01401789486408234</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1542852222919464</v>
+        <v>1.158503651618958</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9858771362187043</v>
+        <v>0.9113814922912387</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8063330493137908</v>
+        <v>0.7510456058772751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9746795561783288</v>
+        <v>-1.159606241894101</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2038821074999984</v>
+        <v>0.9944191556888639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.875239549625637</v>
+        <v>0.5604232205110009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05927063524723053</v>
+        <v>0.3719129264354706</v>
       </c>
       <c r="H16" t="n">
-        <v>1.29505181312561</v>
+        <v>1.664759278297424</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04201163351535797</v>
+        <v>2.306132793426514</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2406709492206573</v>
+        <v>0.01489259395748377</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1413412839174271</v>
+        <v>1.160512924194336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9861291138190258</v>
+        <v>0.9112675542409835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8055979341792733</v>
+        <v>0.7508079881432592</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9763707117440741</v>
+        <v>-1.162257837016013</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.08288058962904699</v>
+        <v>0.994115913119581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8871538980434869</v>
+        <v>0.5597338039836837</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05821313709020615</v>
+        <v>0.3723911046981812</v>
       </c>
       <c r="H17" t="n">
-        <v>1.299967527389526</v>
+        <v>1.666348218917847</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03920567408204079</v>
+        <v>2.308964252471924</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2164812386035919</v>
+        <v>0.01570180244743824</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1278434991836548</v>
+        <v>1.162332892417908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9862348705132205</v>
+        <v>0.9111619950934967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8046950703607968</v>
+        <v>0.7505924926219318</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9781761921685223</v>
+        <v>-1.164646732726205</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04161222010560162</v>
+        <v>0.9938363304307686</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8994600727992391</v>
+        <v>0.5591093812625034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0577692985534668</v>
+        <v>0.3728340864181519</v>
       </c>
       <c r="H18" t="n">
-        <v>1.306005001068115</v>
+        <v>1.667789220809937</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03621002286672592</v>
+        <v>2.311515092849731</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1915935873985291</v>
+        <v>0.01644787564873695</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1139018163084984</v>
+        <v>1.163981437683105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9861413801903522</v>
+        <v>0.9110645992051594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8035914864496234</v>
+        <v>0.7503971636281757</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9800907374442733</v>
+        <v>-1.166797961851892</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1681710368392021</v>
+        <v>0.9935792605190433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9120283911534761</v>
+        <v>0.5585443998557531</v>
       </c>
       <c r="G19" t="n">
-        <v>0.058161661028862</v>
+        <v>0.3732428252696991</v>
       </c>
       <c r="H19" t="n">
-        <v>1.313384771347046</v>
+        <v>1.669095277786255</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03303341194987297</v>
+        <v>2.313812255859375</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1662929058074951</v>
+        <v>0.01713387109339237</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0996631532907486</v>
+        <v>1.165473103523254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9857824634147602</v>
+        <v>0.9109748980027719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8022486565860586</v>
+        <v>0.7502203201833402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9821044645345991</v>
+        <v>-1.168735434056617</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2949838556097757</v>
+        <v>0.9933435775811374</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9246917509223125</v>
+        <v>0.5580333301325213</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05966795980930328</v>
+        <v>0.3736193180084229</v>
       </c>
       <c r="H20" t="n">
-        <v>1.322364091873169</v>
+        <v>1.670277953147888</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02969224005937576</v>
+        <v>2.315881252288818</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1409414410591125</v>
+        <v>0.01776279509067535</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08531681448221207</v>
+        <v>1.16682231426239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_5</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9850754179032523</v>
+        <v>0.9108926636396755</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800621265100343</v>
+        <v>0.7500602727222851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.984201332994127</v>
+        <v>-1.170479755973335</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4197466331704796</v>
+        <v>0.9931278965315007</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9372350748811996</v>
+        <v>0.5575718133011627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06263528019189835</v>
+        <v>0.3739644289016724</v>
       </c>
       <c r="H21" t="n">
-        <v>1.333246469497681</v>
+        <v>1.671348094940186</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02621312066912651</v>
+        <v>2.317744016647339</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1159998327493668</v>
+        <v>0.01833834499120712</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07110647112131119</v>
+        <v>1.168040752410889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9839169199563518</v>
+        <v>0.9108173507476819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7986555563371224</v>
+        <v>0.7499155115710961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9863579033109772</v>
+        <v>-1.172051042520435</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5395350404900494</v>
+        <v>0.9929309809273248</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9493832288435273</v>
+        <v>0.5571545178907298</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06749724596738815</v>
+        <v>0.3742805123329163</v>
       </c>
       <c r="H22" t="n">
-        <v>1.346391201019287</v>
+        <v>1.672316074371338</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02263494022190571</v>
+        <v>2.319421768188477</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0920526459813118</v>
+        <v>0.01886381767690182</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05734381079673767</v>
+        <v>1.169142484664917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9821779995681376</v>
+        <v>0.9107484225691398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7962865434434202</v>
+        <v>0.7497846621279418</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988541831819517</v>
+        <v>-1.17346705403353</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6506486989142646</v>
+        <v>0.9927514015395787</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9607860494231749</v>
+        <v>0.5567770107451604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07479511946439743</v>
+        <v>0.3745697736740112</v>
       </c>
       <c r="H23" t="n">
-        <v>1.362232804298401</v>
+        <v>1.673191070556641</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01901137083768845</v>
+        <v>2.320933818817139</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06983964890241623</v>
+        <v>0.01934302970767021</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04442553967237473</v>
+        <v>1.170139074325562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9796977368349217</v>
+        <v>0.9106856972981576</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7934338246446823</v>
+        <v>0.7496664546823582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9907101686714052</v>
+        <v>-1.174738785742619</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7484164257240011</v>
+        <v>0.9925879724273414</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9709999477329245</v>
+        <v>0.5564374465421563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08520425111055374</v>
+        <v>0.3748330175876617</v>
       </c>
       <c r="H24" t="n">
-        <v>1.381308913230896</v>
+        <v>1.673981666564941</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01541367080062628</v>
+        <v>2.322291851043701</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0502946749329567</v>
+        <v>0.01977914199233055</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03285419940948486</v>
+        <v>1.171035528182983</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9762769481425486</v>
+        <v>0.9106284296132712</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7899943516947996</v>
+        <v>0.7495596704783535</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9928075627707588</v>
+        <v>-1.175887259028128</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8270484473679205</v>
+        <v>0.9924393423856609</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9794735418617828</v>
+        <v>0.5561303392392739</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09956056624650955</v>
+        <v>0.3750733137130737</v>
       </c>
       <c r="H25" t="n">
-        <v>1.404308795928955</v>
+        <v>1.674695730209351</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01193367876112461</v>
+        <v>2.3235182762146</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03457515686750412</v>
+        <v>0.02017576433718204</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02325445227324963</v>
+        <v>1.171846389770508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9716714973970291</v>
+        <v>0.9105763680019774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7858289878022806</v>
+        <v>0.7494632856877377</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9947644811138451</v>
+        <v>-1.176920171117954</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8796037254841398</v>
+        <v>0.9923043344440948</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9855435201456363</v>
+        <v>0.5558529505734784</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1188886612653732</v>
+        <v>0.3752918541431427</v>
       </c>
       <c r="H26" t="n">
-        <v>1.432162523269653</v>
+        <v>1.675340175628662</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008686762303113937</v>
+        <v>2.324621200561523</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02406870760023594</v>
+        <v>0.02053603529930115</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0163777656853199</v>
+        <v>1.172578692436218</v>
       </c>
     </row>
   </sheetData>
